--- a/data/raw/Wrack_Biomass_Raw_Data.xlsx
+++ b/data/raw/Wrack_Biomass_Raw_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankiegerraty/Documents/!UC Santa Cruz/Research/2022 Summer Sitka/Kelp Wrack/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GERRATY/Fucus_Wrack/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AA9DDA-24AB-9B43-9196-96D38190FF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDCBBD4-ACBC-8C41-8475-EC8B939F54A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="15280" xr2:uid="{E2CD804E-617D-0247-A376-9AE9DA4D0508}"/>
   </bookViews>
@@ -224,9 +224,6 @@
     <t>NEOX</t>
   </si>
   <si>
-    <t>Site_Name</t>
-  </si>
-  <si>
     <t>Site_Number</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   <si>
     <t>Wrack_Mass_Per_Transect</t>
   </si>
+  <si>
+    <t>Site</t>
+  </si>
 </sst>
 </file>
 
@@ -441,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -456,7 +456,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,9 +772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F22B525-AD0F-D446-A389-DAEB5D3AFD44}">
   <dimension ref="A1:O554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,54 +798,54 @@
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="N3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -895,7 +894,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -944,7 +943,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -993,7 +992,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1042,7 +1041,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1091,7 +1090,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1140,7 +1139,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1189,7 +1188,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1238,7 +1237,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1287,7 +1286,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1336,7 +1335,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1385,7 +1384,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -8122,10 +8121,10 @@
         <v>10</v>
       </c>
       <c r="I152" t="s">
+        <v>93</v>
+      </c>
+      <c r="J152" t="s">
         <v>94</v>
-      </c>
-      <c r="J152" t="s">
-        <v>95</v>
       </c>
       <c r="K152" t="s">
         <v>14</v>
@@ -8808,10 +8807,10 @@
         <v>15</v>
       </c>
       <c r="I166" t="s">
+        <v>93</v>
+      </c>
+      <c r="J166" t="s">
         <v>94</v>
-      </c>
-      <c r="J166" t="s">
-        <v>95</v>
       </c>
       <c r="K166" t="s">
         <v>14</v>
@@ -8857,10 +8856,10 @@
         <v>5</v>
       </c>
       <c r="I167" t="s">
+        <v>93</v>
+      </c>
+      <c r="J167" t="s">
         <v>94</v>
-      </c>
-      <c r="J167" t="s">
-        <v>95</v>
       </c>
       <c r="K167" t="s">
         <v>14</v>
@@ -9739,10 +9738,10 @@
         <v>10</v>
       </c>
       <c r="I185" t="s">
+        <v>93</v>
+      </c>
+      <c r="J185" t="s">
         <v>94</v>
-      </c>
-      <c r="J185" t="s">
-        <v>95</v>
       </c>
       <c r="K185" t="s">
         <v>14</v>
@@ -10572,10 +10571,10 @@
         <v>5</v>
       </c>
       <c r="I202" t="s">
+        <v>93</v>
+      </c>
+      <c r="J202" t="s">
         <v>94</v>
-      </c>
-      <c r="J202" t="s">
-        <v>95</v>
       </c>
       <c r="K202" t="s">
         <v>14</v>
@@ -11209,10 +11208,10 @@
         <v>5</v>
       </c>
       <c r="I215" t="s">
+        <v>74</v>
+      </c>
+      <c r="J215" t="s">
         <v>75</v>
-      </c>
-      <c r="J215" t="s">
-        <v>76</v>
       </c>
       <c r="K215" t="s">
         <v>14</v>
@@ -11258,10 +11257,10 @@
         <v>5</v>
       </c>
       <c r="I216" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J216" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K216" t="s">
         <v>14</v>
@@ -12042,10 +12041,10 @@
         <v>5</v>
       </c>
       <c r="I232" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J232" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K232" t="s">
         <v>14</v>
@@ -12581,10 +12580,10 @@
         <v>5</v>
       </c>
       <c r="I243" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J243" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K243" t="s">
         <v>14</v>
@@ -12606,7 +12605,7 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B244" s="6">
         <v>8</v>
@@ -12655,7 +12654,7 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B245" s="6">
         <v>8</v>
@@ -12704,7 +12703,7 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B246" s="6">
         <v>8</v>
@@ -12753,7 +12752,7 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B247" s="6">
         <v>8</v>
@@ -12802,7 +12801,7 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B248" s="6">
         <v>8</v>
@@ -12851,7 +12850,7 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B249" s="6">
         <v>8</v>
@@ -12875,10 +12874,10 @@
         <v>10</v>
       </c>
       <c r="I249" t="s">
+        <v>74</v>
+      </c>
+      <c r="J249" t="s">
         <v>75</v>
-      </c>
-      <c r="J249" t="s">
-        <v>76</v>
       </c>
       <c r="K249" t="s">
         <v>11</v>
@@ -12900,7 +12899,7 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B250" s="6">
         <v>8</v>
@@ -12949,7 +12948,7 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B251" s="6">
         <v>8</v>
@@ -12998,7 +12997,7 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B252" s="6">
         <v>8</v>
@@ -13047,7 +13046,7 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B253" s="6">
         <v>8</v>
@@ -13096,7 +13095,7 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B254" s="6">
         <v>8</v>
@@ -13145,7 +13144,7 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B255" s="6">
         <v>8</v>
@@ -13194,7 +13193,7 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B256" s="6">
         <v>8</v>
@@ -13243,7 +13242,7 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B257" s="6">
         <v>8</v>
@@ -13292,7 +13291,7 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B258" s="6">
         <v>8</v>
@@ -13341,7 +13340,7 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B259" s="6">
         <v>8</v>
@@ -13390,7 +13389,7 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B260" s="6">
         <v>8</v>
@@ -13439,7 +13438,7 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B261" s="6">
         <v>8</v>
@@ -13488,7 +13487,7 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B262" s="6">
         <v>8</v>
@@ -13537,7 +13536,7 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B263" s="6">
         <v>8</v>
@@ -13586,7 +13585,7 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B264" s="6">
         <v>8</v>
@@ -13635,7 +13634,7 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B265" s="6">
         <v>8</v>
@@ -13659,10 +13658,10 @@
         <v>5</v>
       </c>
       <c r="I265" t="s">
+        <v>74</v>
+      </c>
+      <c r="J265" t="s">
         <v>75</v>
-      </c>
-      <c r="J265" t="s">
-        <v>76</v>
       </c>
       <c r="K265" t="s">
         <v>14</v>
@@ -13684,7 +13683,7 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B266" s="6">
         <v>9</v>
@@ -13733,7 +13732,7 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B267" s="6">
         <v>9</v>
@@ -13782,7 +13781,7 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B268" s="6">
         <v>9</v>
@@ -13831,7 +13830,7 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B269" s="6">
         <v>9</v>
@@ -13880,7 +13879,7 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B270" s="6">
         <v>9</v>
@@ -13929,7 +13928,7 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B271" s="6">
         <v>9</v>
@@ -13978,7 +13977,7 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B272" s="6">
         <v>9</v>
@@ -14027,7 +14026,7 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B273" s="6">
         <v>9</v>
@@ -14076,7 +14075,7 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B274" s="6">
         <v>9</v>
@@ -14125,7 +14124,7 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B275" s="6">
         <v>9</v>
@@ -14174,7 +14173,7 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B276" s="6">
         <v>9</v>
@@ -14223,7 +14222,7 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B277" s="6">
         <v>9</v>
@@ -14272,7 +14271,7 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B278" s="6">
         <v>9</v>
@@ -14296,10 +14295,10 @@
         <v>15</v>
       </c>
       <c r="I278" t="s">
+        <v>77</v>
+      </c>
+      <c r="J278" t="s">
         <v>78</v>
-      </c>
-      <c r="J278" t="s">
-        <v>79</v>
       </c>
       <c r="K278" t="s">
         <v>11</v>
@@ -14321,7 +14320,7 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B279" s="6">
         <v>9</v>
@@ -14345,10 +14344,10 @@
         <v>20</v>
       </c>
       <c r="I279" t="s">
+        <v>77</v>
+      </c>
+      <c r="J279" t="s">
         <v>78</v>
-      </c>
-      <c r="J279" t="s">
-        <v>79</v>
       </c>
       <c r="K279" t="s">
         <v>11</v>
@@ -14370,7 +14369,7 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B280" s="6">
         <v>9</v>
@@ -14419,7 +14418,7 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B281" s="6">
         <v>9</v>
@@ -14468,7 +14467,7 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B282" s="6">
         <v>9</v>
@@ -14492,10 +14491,10 @@
         <v>5</v>
       </c>
       <c r="I282" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J282" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K282" t="s">
         <v>11</v>
@@ -14517,7 +14516,7 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B283" s="6">
         <v>9</v>
@@ -14566,7 +14565,7 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B284" s="6">
         <v>9</v>
@@ -14590,10 +14589,10 @@
         <v>5</v>
       </c>
       <c r="I284" t="s">
+        <v>79</v>
+      </c>
+      <c r="J284" t="s">
         <v>80</v>
-      </c>
-      <c r="J284" t="s">
-        <v>81</v>
       </c>
       <c r="K284" t="s">
         <v>11</v>
@@ -14615,7 +14614,7 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B285" s="6">
         <v>9</v>
@@ -14664,7 +14663,7 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B286" s="6">
         <v>9</v>
@@ -14713,7 +14712,7 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B287" s="6">
         <v>9</v>
@@ -14762,7 +14761,7 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B288" s="6">
         <v>9</v>
@@ -14811,7 +14810,7 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B289" s="6">
         <v>9</v>
@@ -14860,7 +14859,7 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B290" s="6">
         <v>9</v>
@@ -14909,7 +14908,7 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B291" s="6">
         <v>9</v>
@@ -14958,7 +14957,7 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B292" s="6">
         <v>9</v>
@@ -15007,7 +15006,7 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B293" s="6">
         <v>9</v>
@@ -15056,7 +15055,7 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B294" s="6">
         <v>9</v>
@@ -15105,7 +15104,7 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B295" s="6">
         <v>9</v>
@@ -15154,7 +15153,7 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B296" s="6">
         <v>9</v>
@@ -15203,7 +15202,7 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B297" s="6">
         <v>9</v>
@@ -15252,7 +15251,7 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B298" s="6">
         <v>9</v>
@@ -15301,7 +15300,7 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B299" s="6">
         <v>9</v>
@@ -15350,7 +15349,7 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B300" s="6">
         <v>9</v>
@@ -15399,7 +15398,7 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B301" s="6">
         <v>9</v>
@@ -15448,7 +15447,7 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B302" s="6">
         <v>9</v>
@@ -15472,10 +15471,10 @@
         <v>5</v>
       </c>
       <c r="I302" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J302" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K302" t="s">
         <v>11</v>
@@ -15497,7 +15496,7 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B303" s="6">
         <v>9</v>
@@ -15546,7 +15545,7 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B304" s="6">
         <v>9</v>
@@ -15595,7 +15594,7 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B305" s="6">
         <v>9</v>
@@ -15644,7 +15643,7 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B306" s="6">
         <v>9</v>
@@ -15693,7 +15692,7 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B307" s="6">
         <v>9</v>
@@ -15742,7 +15741,7 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B308" s="6">
         <v>9</v>
@@ -15791,7 +15790,7 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B309" s="6">
         <v>9</v>
@@ -15840,7 +15839,7 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B310" s="6">
         <v>9</v>
@@ -15889,7 +15888,7 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B311" s="6">
         <v>9</v>
@@ -15938,7 +15937,7 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B312" s="6">
         <v>9</v>
@@ -15987,7 +15986,7 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B313" s="6">
         <v>9</v>
@@ -16036,7 +16035,7 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B314" s="6">
         <v>9</v>
@@ -16085,7 +16084,7 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B315" s="6">
         <v>9</v>
@@ -16134,7 +16133,7 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B316" s="6">
         <v>9</v>
@@ -16183,7 +16182,7 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B317" s="6">
         <v>9</v>
@@ -16207,10 +16206,10 @@
         <v>5</v>
       </c>
       <c r="I317" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J317" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K317" t="s">
         <v>11</v>
@@ -16232,7 +16231,7 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B318" s="6">
         <v>9</v>
@@ -16256,10 +16255,10 @@
         <v>5</v>
       </c>
       <c r="I318" t="s">
+        <v>81</v>
+      </c>
+      <c r="J318" t="s">
         <v>82</v>
-      </c>
-      <c r="J318" t="s">
-        <v>83</v>
       </c>
       <c r="K318" t="s">
         <v>11</v>
@@ -16281,7 +16280,7 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B319" s="6">
         <v>10</v>
@@ -16330,7 +16329,7 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B320" s="6">
         <v>10</v>
@@ -16379,7 +16378,7 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B321" s="6">
         <v>10</v>
@@ -16428,7 +16427,7 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B322" s="6">
         <v>10</v>
@@ -16477,7 +16476,7 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B323" s="6">
         <v>10</v>
@@ -16526,7 +16525,7 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B324" s="6">
         <v>10</v>
@@ -16575,7 +16574,7 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B325" s="6">
         <v>10</v>
@@ -16624,7 +16623,7 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B326" s="6">
         <v>10</v>
@@ -16673,7 +16672,7 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B327" s="6">
         <v>10</v>
@@ -16722,7 +16721,7 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B328" s="6">
         <v>10</v>
@@ -16771,7 +16770,7 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B329" s="6">
         <v>10</v>
@@ -16820,7 +16819,7 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B330" s="6">
         <v>10</v>
@@ -16869,7 +16868,7 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B331" s="6">
         <v>10</v>
@@ -16918,7 +16917,7 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B332" s="6">
         <v>10</v>
@@ -16967,7 +16966,7 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B333" s="6">
         <v>10</v>
@@ -17016,7 +17015,7 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B334" s="6">
         <v>10</v>
@@ -17065,7 +17064,7 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B335" s="6">
         <v>10</v>
@@ -17114,7 +17113,7 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B336" s="6">
         <v>10</v>
@@ -17163,7 +17162,7 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B337" s="6">
         <v>10</v>
@@ -17212,7 +17211,7 @@
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B338" s="6">
         <v>10</v>
@@ -17261,7 +17260,7 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B339" s="6">
         <v>10</v>
@@ -17310,7 +17309,7 @@
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B340" s="6">
         <v>10</v>
@@ -17359,7 +17358,7 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B341" s="6">
         <v>10</v>
@@ -17408,7 +17407,7 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B342" s="6">
         <v>10</v>
@@ -17457,7 +17456,7 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B343" s="6">
         <v>10</v>
@@ -17506,7 +17505,7 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B344" s="6">
         <v>10</v>
@@ -17555,7 +17554,7 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B345" s="6">
         <v>10</v>
@@ -17604,7 +17603,7 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B346" s="6">
         <v>10</v>
@@ -17653,7 +17652,7 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B347" s="6">
         <v>10</v>
@@ -17702,7 +17701,7 @@
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B348" s="6">
         <v>10</v>
@@ -17751,7 +17750,7 @@
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B349" s="6">
         <v>10</v>
@@ -17775,10 +17774,10 @@
         <v>5</v>
       </c>
       <c r="I349" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J349" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K349" t="s">
         <v>11</v>
@@ -17800,7 +17799,7 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B350" s="6">
         <v>11</v>
@@ -17849,7 +17848,7 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B351" s="6">
         <v>11</v>
@@ -17898,7 +17897,7 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B352" s="6">
         <v>11</v>
@@ -17947,7 +17946,7 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B353" s="6">
         <v>11</v>
@@ -17996,7 +17995,7 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B354" s="6">
         <v>11</v>
@@ -18045,7 +18044,7 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B355" s="6">
         <v>11</v>
@@ -18094,7 +18093,7 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B356" s="6">
         <v>11</v>
@@ -18143,7 +18142,7 @@
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B357" s="6">
         <v>11</v>
@@ -18192,7 +18191,7 @@
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B358" s="6">
         <v>11</v>
@@ -18241,7 +18240,7 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B359" s="6">
         <v>11</v>
@@ -18265,10 +18264,10 @@
         <v>5</v>
       </c>
       <c r="I359" t="s">
+        <v>86</v>
+      </c>
+      <c r="J359" t="s">
         <v>87</v>
-      </c>
-      <c r="J359" t="s">
-        <v>88</v>
       </c>
       <c r="K359" t="s">
         <v>11</v>
@@ -18290,7 +18289,7 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B360" s="6">
         <v>11</v>
@@ -18339,7 +18338,7 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B361" s="6">
         <v>11</v>
@@ -18388,7 +18387,7 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B362" s="6">
         <v>11</v>
@@ -18412,10 +18411,10 @@
         <v>5</v>
       </c>
       <c r="I362" t="s">
+        <v>88</v>
+      </c>
+      <c r="J362" t="s">
         <v>89</v>
-      </c>
-      <c r="J362" t="s">
-        <v>90</v>
       </c>
       <c r="K362" t="s">
         <v>11</v>
@@ -18437,7 +18436,7 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B363" s="6">
         <v>11</v>
@@ -18486,7 +18485,7 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B364" s="6">
         <v>11</v>
@@ -18535,7 +18534,7 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B365" s="6">
         <v>11</v>
@@ -18559,10 +18558,10 @@
         <v>10</v>
       </c>
       <c r="I365" t="s">
+        <v>88</v>
+      </c>
+      <c r="J365" t="s">
         <v>89</v>
-      </c>
-      <c r="J365" t="s">
-        <v>90</v>
       </c>
       <c r="K365" t="s">
         <v>11</v>
@@ -18584,7 +18583,7 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B366" s="6">
         <v>11</v>
@@ -18633,7 +18632,7 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B367" s="6">
         <v>11</v>
@@ -18682,7 +18681,7 @@
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B368" s="6">
         <v>11</v>
@@ -18731,7 +18730,7 @@
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B369" s="6">
         <v>11</v>
@@ -18755,10 +18754,10 @@
         <v>20</v>
       </c>
       <c r="I369" t="s">
+        <v>88</v>
+      </c>
+      <c r="J369" t="s">
         <v>89</v>
-      </c>
-      <c r="J369" t="s">
-        <v>90</v>
       </c>
       <c r="K369" t="s">
         <v>11</v>
@@ -18780,7 +18779,7 @@
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B370" s="6">
         <v>11</v>
@@ -18829,7 +18828,7 @@
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B371" s="6">
         <v>11</v>
@@ -18878,7 +18877,7 @@
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B372" s="6">
         <v>11</v>
@@ -18927,7 +18926,7 @@
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B373" s="6">
         <v>11</v>
@@ -18976,7 +18975,7 @@
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B374" s="6">
         <v>11</v>
@@ -19025,7 +19024,7 @@
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B375" s="6">
         <v>11</v>
@@ -19074,7 +19073,7 @@
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B376" s="6">
         <v>11</v>
@@ -19098,10 +19097,10 @@
         <v>5</v>
       </c>
       <c r="I376" t="s">
+        <v>86</v>
+      </c>
+      <c r="J376" t="s">
         <v>87</v>
-      </c>
-      <c r="J376" t="s">
-        <v>88</v>
       </c>
       <c r="K376" t="s">
         <v>11</v>
@@ -19123,7 +19122,7 @@
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B377" s="6">
         <v>11</v>
@@ -19172,7 +19171,7 @@
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B378" s="6">
         <v>11</v>
@@ -19221,7 +19220,7 @@
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B379" s="6">
         <v>11</v>
@@ -19270,7 +19269,7 @@
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B380" s="6">
         <v>11</v>
@@ -19319,7 +19318,7 @@
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B381" s="6">
         <v>11</v>
@@ -19343,10 +19342,10 @@
         <v>5</v>
       </c>
       <c r="I381" t="s">
+        <v>88</v>
+      </c>
+      <c r="J381" t="s">
         <v>89</v>
-      </c>
-      <c r="J381" t="s">
-        <v>90</v>
       </c>
       <c r="K381" t="s">
         <v>11</v>
@@ -19368,7 +19367,7 @@
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B382" s="6">
         <v>11</v>
@@ -19417,7 +19416,7 @@
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B383" s="6">
         <v>11</v>
@@ -19466,7 +19465,7 @@
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B384" s="6">
         <v>11</v>
@@ -19515,7 +19514,7 @@
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B385" s="6">
         <v>11</v>
@@ -19564,7 +19563,7 @@
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B386" s="6">
         <v>11</v>
@@ -19613,7 +19612,7 @@
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B387" s="6">
         <v>11</v>
@@ -19637,10 +19636,10 @@
         <v>15</v>
       </c>
       <c r="I387" t="s">
+        <v>90</v>
+      </c>
+      <c r="J387" t="s">
         <v>91</v>
-      </c>
-      <c r="J387" t="s">
-        <v>92</v>
       </c>
       <c r="K387" t="s">
         <v>11</v>
@@ -19662,7 +19661,7 @@
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B388" s="6">
         <v>11</v>
@@ -19711,7 +19710,7 @@
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B389" s="6">
         <v>11</v>
@@ -19760,7 +19759,7 @@
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B390" s="6">
         <v>11</v>
@@ -19809,7 +19808,7 @@
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B391" s="6">
         <v>11</v>
@@ -19858,7 +19857,7 @@
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B392" s="6">
         <v>11</v>
@@ -19907,7 +19906,7 @@
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B393" s="6">
         <v>11</v>
@@ -19956,7 +19955,7 @@
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B394" s="6">
         <v>11</v>
@@ -19980,10 +19979,10 @@
         <v>5</v>
       </c>
       <c r="I394" t="s">
+        <v>86</v>
+      </c>
+      <c r="J394" t="s">
         <v>87</v>
-      </c>
-      <c r="J394" t="s">
-        <v>88</v>
       </c>
       <c r="K394" t="s">
         <v>11</v>
@@ -20005,7 +20004,7 @@
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B395" s="6">
         <v>11</v>
@@ -20054,7 +20053,7 @@
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B396" s="6">
         <v>11</v>
@@ -20103,7 +20102,7 @@
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B397" s="6">
         <v>11</v>
@@ -20152,7 +20151,7 @@
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B398" s="6">
         <v>12</v>
@@ -20201,7 +20200,7 @@
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B399" s="6">
         <v>12</v>
@@ -20250,7 +20249,7 @@
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B400" s="6">
         <v>12</v>
@@ -20299,7 +20298,7 @@
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B401" s="6">
         <v>12</v>
@@ -20348,7 +20347,7 @@
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B402" s="6">
         <v>12</v>
@@ -20397,7 +20396,7 @@
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B403" s="6">
         <v>12</v>
@@ -20446,7 +20445,7 @@
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B404" s="6">
         <v>12</v>
@@ -20495,7 +20494,7 @@
     </row>
     <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B405" s="6">
         <v>12</v>
@@ -20544,7 +20543,7 @@
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B406" s="6">
         <v>12</v>
@@ -20568,10 +20567,10 @@
         <v>5</v>
       </c>
       <c r="I406" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J406" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K406" t="s">
         <v>11</v>
@@ -20593,7 +20592,7 @@
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B407" s="6">
         <v>12</v>
@@ -20642,7 +20641,7 @@
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B408" s="6">
         <v>12</v>
@@ -20691,7 +20690,7 @@
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B409" s="6">
         <v>12</v>
@@ -20740,7 +20739,7 @@
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B410" s="6">
         <v>12</v>
@@ -20789,7 +20788,7 @@
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B411" s="6">
         <v>12</v>
@@ -20838,7 +20837,7 @@
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B412" s="6">
         <v>12</v>
@@ -20887,7 +20886,7 @@
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B413" s="6">
         <v>12</v>
@@ -20911,10 +20910,10 @@
         <v>10</v>
       </c>
       <c r="I413" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J413" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K413" t="s">
         <v>11</v>
@@ -20936,7 +20935,7 @@
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B414" s="6">
         <v>12</v>
@@ -20960,10 +20959,10 @@
         <v>5</v>
       </c>
       <c r="I414" t="s">
+        <v>74</v>
+      </c>
+      <c r="J414" t="s">
         <v>75</v>
-      </c>
-      <c r="J414" t="s">
-        <v>76</v>
       </c>
       <c r="K414" t="s">
         <v>11</v>
@@ -20985,7 +20984,7 @@
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B415" s="6">
         <v>12</v>
@@ -21009,10 +21008,10 @@
         <v>5</v>
       </c>
       <c r="I415" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J415" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K415" t="s">
         <v>11</v>
@@ -21034,7 +21033,7 @@
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B416" s="6">
         <v>12</v>
@@ -21083,7 +21082,7 @@
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B417" s="6">
         <v>12</v>
@@ -21132,7 +21131,7 @@
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B418" s="6">
         <v>12</v>
@@ -21181,7 +21180,7 @@
     </row>
     <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B419" s="6">
         <v>12</v>
@@ -21230,7 +21229,7 @@
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B420" s="6">
         <v>12</v>
@@ -21279,7 +21278,7 @@
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B421" s="6">
         <v>12</v>
@@ -21328,7 +21327,7 @@
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B422" s="6">
         <v>12</v>
@@ -21377,7 +21376,7 @@
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B423" s="6">
         <v>12</v>
@@ -21426,7 +21425,7 @@
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B424" s="6">
         <v>12</v>
@@ -21475,7 +21474,7 @@
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B425" s="6">
         <v>12</v>
@@ -21524,7 +21523,7 @@
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B426" s="6">
         <v>12</v>
@@ -21548,10 +21547,10 @@
         <v>5</v>
       </c>
       <c r="I426" t="s">
+        <v>93</v>
+      </c>
+      <c r="J426" t="s">
         <v>94</v>
-      </c>
-      <c r="J426" t="s">
-        <v>95</v>
       </c>
       <c r="K426" t="s">
         <v>11</v>
@@ -21573,7 +21572,7 @@
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B427" s="6">
         <v>12</v>
@@ -21597,10 +21596,10 @@
         <v>5</v>
       </c>
       <c r="I427" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J427" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K427" t="s">
         <v>11</v>
@@ -21622,7 +21621,7 @@
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B428" s="6">
         <v>12</v>
@@ -21646,10 +21645,10 @@
         <v>5</v>
       </c>
       <c r="I428" t="s">
+        <v>79</v>
+      </c>
+      <c r="J428" t="s">
         <v>80</v>
-      </c>
-      <c r="J428" t="s">
-        <v>81</v>
       </c>
       <c r="K428" t="s">
         <v>11</v>
@@ -21671,7 +21670,7 @@
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B429" s="6">
         <v>13</v>
@@ -21720,7 +21719,7 @@
     </row>
     <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B430" s="6">
         <v>13</v>
@@ -21769,7 +21768,7 @@
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B431" s="6">
         <v>13</v>
@@ -21818,7 +21817,7 @@
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B432" s="6">
         <v>13</v>
@@ -21867,7 +21866,7 @@
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B433" s="6">
         <v>13</v>
@@ -21916,7 +21915,7 @@
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B434" s="6">
         <v>13</v>
@@ -21965,7 +21964,7 @@
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B435" s="6">
         <v>13</v>
@@ -22014,7 +22013,7 @@
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B436" s="6">
         <v>13</v>
@@ -22063,7 +22062,7 @@
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B437" s="6">
         <v>13</v>
@@ -22087,10 +22086,10 @@
         <v>10</v>
       </c>
       <c r="I437" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J437" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K437" t="s">
         <v>11</v>
@@ -22112,7 +22111,7 @@
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B438" s="6">
         <v>13</v>
@@ -22161,7 +22160,7 @@
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B439" s="6">
         <v>13</v>
@@ -22210,7 +22209,7 @@
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B440" s="6">
         <v>13</v>
@@ -22259,7 +22258,7 @@
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B441" s="6">
         <v>13</v>
@@ -22308,7 +22307,7 @@
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B442" s="6">
         <v>13</v>
@@ -22332,10 +22331,10 @@
         <v>5</v>
       </c>
       <c r="I442" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J442" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K442" t="s">
         <v>11</v>
@@ -22357,7 +22356,7 @@
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B443" s="6">
         <v>13</v>
@@ -22406,7 +22405,7 @@
     </row>
     <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B444" s="6">
         <v>13</v>
@@ -22455,7 +22454,7 @@
     </row>
     <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B445" s="6">
         <v>13</v>
@@ -22479,10 +22478,10 @@
         <v>5</v>
       </c>
       <c r="I445" t="s">
+        <v>88</v>
+      </c>
+      <c r="J445" t="s">
         <v>89</v>
-      </c>
-      <c r="J445" t="s">
-        <v>90</v>
       </c>
       <c r="K445" t="s">
         <v>11</v>
@@ -22504,7 +22503,7 @@
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B446" s="6">
         <v>13</v>
@@ -22553,7 +22552,7 @@
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B447" s="6">
         <v>13</v>
@@ -22602,7 +22601,7 @@
     </row>
     <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B448" s="6">
         <v>13</v>
@@ -22651,7 +22650,7 @@
     </row>
     <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B449" s="6">
         <v>13</v>
@@ -22700,7 +22699,7 @@
     </row>
     <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B450" s="6">
         <v>13</v>
@@ -22749,7 +22748,7 @@
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B451" s="6">
         <v>13</v>
@@ -22798,7 +22797,7 @@
     </row>
     <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B452" s="6">
         <v>13</v>
@@ -22847,7 +22846,7 @@
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B453" s="6">
         <v>13</v>
@@ -22896,7 +22895,7 @@
     </row>
     <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B454" s="6">
         <v>13</v>
@@ -22920,10 +22919,10 @@
         <v>5</v>
       </c>
       <c r="I454" t="s">
+        <v>74</v>
+      </c>
+      <c r="J454" t="s">
         <v>75</v>
-      </c>
-      <c r="J454" t="s">
-        <v>76</v>
       </c>
       <c r="K454" t="s">
         <v>11</v>
@@ -22945,7 +22944,7 @@
     </row>
     <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B455" s="6">
         <v>13</v>
@@ -22994,7 +22993,7 @@
     </row>
     <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B456" s="6">
         <v>13</v>
@@ -23043,7 +23042,7 @@
     </row>
     <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B457" s="6">
         <v>13</v>
@@ -23067,10 +23066,10 @@
         <v>5</v>
       </c>
       <c r="I457" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J457" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K457" t="s">
         <v>11</v>
@@ -23092,7 +23091,7 @@
     </row>
     <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B458" s="6">
         <v>13</v>
@@ -23141,7 +23140,7 @@
     </row>
     <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B459" s="6">
         <v>13</v>
@@ -23190,7 +23189,7 @@
     </row>
     <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B460" s="6">
         <v>13</v>
@@ -23214,10 +23213,10 @@
         <v>5</v>
       </c>
       <c r="I460" t="s">
+        <v>88</v>
+      </c>
+      <c r="J460" t="s">
         <v>89</v>
-      </c>
-      <c r="J460" t="s">
-        <v>90</v>
       </c>
       <c r="K460" t="s">
         <v>11</v>
@@ -23239,7 +23238,7 @@
     </row>
     <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B461" s="6">
         <v>13</v>
@@ -23288,7 +23287,7 @@
     </row>
     <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B462" s="6">
         <v>13</v>
@@ -23337,7 +23336,7 @@
     </row>
     <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B463" s="6">
         <v>13</v>
@@ -23386,7 +23385,7 @@
     </row>
     <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B464" s="6">
         <v>13</v>
@@ -23410,10 +23409,10 @@
         <v>10</v>
       </c>
       <c r="I464" t="s">
+        <v>96</v>
+      </c>
+      <c r="J464" t="s">
         <v>97</v>
-      </c>
-      <c r="J464" t="s">
-        <v>98</v>
       </c>
       <c r="K464" t="s">
         <v>11</v>
@@ -23435,7 +23434,7 @@
     </row>
     <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B465" s="6">
         <v>13</v>
@@ -23484,7 +23483,7 @@
     </row>
     <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B466" s="6">
         <v>13</v>
@@ -23533,7 +23532,7 @@
     </row>
     <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B467" s="6">
         <v>13</v>
@@ -23582,7 +23581,7 @@
     </row>
     <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B468" s="6">
         <v>13</v>
@@ -23631,7 +23630,7 @@
     </row>
     <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B469" s="6">
         <v>13</v>
@@ -23655,10 +23654,10 @@
         <v>5</v>
       </c>
       <c r="I469" t="s">
+        <v>74</v>
+      </c>
+      <c r="J469" t="s">
         <v>75</v>
-      </c>
-      <c r="J469" t="s">
-        <v>76</v>
       </c>
       <c r="K469" t="s">
         <v>11</v>
@@ -23680,7 +23679,7 @@
     </row>
     <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B470" s="6">
         <v>13</v>
@@ -23729,7 +23728,7 @@
     </row>
     <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B471" s="6">
         <v>13</v>
@@ -23778,7 +23777,7 @@
     </row>
     <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B472" s="6">
         <v>13</v>
@@ -23802,10 +23801,10 @@
         <v>5</v>
       </c>
       <c r="I472" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J472" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K472" t="s">
         <v>11</v>
@@ -23827,7 +23826,7 @@
     </row>
     <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B473" s="6">
         <v>13</v>
@@ -23876,7 +23875,7 @@
     </row>
     <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B474" s="6">
         <v>13</v>
@@ -23900,10 +23899,10 @@
         <v>5</v>
       </c>
       <c r="I474" t="s">
+        <v>90</v>
+      </c>
+      <c r="J474" t="s">
         <v>91</v>
-      </c>
-      <c r="J474" t="s">
-        <v>92</v>
       </c>
       <c r="K474" t="s">
         <v>11</v>
@@ -23925,7 +23924,7 @@
     </row>
     <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B475" s="6">
         <v>14</v>
@@ -23974,7 +23973,7 @@
     </row>
     <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B476" s="6">
         <v>14</v>
@@ -24023,7 +24022,7 @@
     </row>
     <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B477" s="6">
         <v>14</v>
@@ -24072,7 +24071,7 @@
     </row>
     <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B478" s="6">
         <v>14</v>
@@ -24121,7 +24120,7 @@
     </row>
     <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B479" s="6">
         <v>14</v>
@@ -24170,7 +24169,7 @@
     </row>
     <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B480" s="6">
         <v>14</v>
@@ -24219,7 +24218,7 @@
     </row>
     <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B481" s="6">
         <v>14</v>
@@ -24268,7 +24267,7 @@
     </row>
     <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B482" s="6">
         <v>14</v>
@@ -24292,10 +24291,10 @@
         <v>5</v>
       </c>
       <c r="I482" t="s">
+        <v>74</v>
+      </c>
+      <c r="J482" t="s">
         <v>75</v>
-      </c>
-      <c r="J482" t="s">
-        <v>76</v>
       </c>
       <c r="K482" t="s">
         <v>11</v>
@@ -24317,7 +24316,7 @@
     </row>
     <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B483" s="6">
         <v>14</v>
@@ -24366,7 +24365,7 @@
     </row>
     <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B484" s="6">
         <v>14</v>
@@ -24390,10 +24389,10 @@
         <v>5</v>
       </c>
       <c r="I484" t="s">
+        <v>99</v>
+      </c>
+      <c r="J484" t="s">
         <v>100</v>
-      </c>
-      <c r="J484" t="s">
-        <v>101</v>
       </c>
       <c r="K484" t="s">
         <v>11</v>
@@ -24415,7 +24414,7 @@
     </row>
     <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B485" s="6">
         <v>14</v>
@@ -24464,7 +24463,7 @@
     </row>
     <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B486" s="6">
         <v>14</v>
@@ -24513,7 +24512,7 @@
     </row>
     <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B487" s="6">
         <v>14</v>
@@ -24562,7 +24561,7 @@
     </row>
     <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B488" s="6">
         <v>14</v>
@@ -24571,7 +24570,7 @@
         <v>44813</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E488">
         <v>0.5</v>
@@ -24611,7 +24610,7 @@
     </row>
     <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B489" s="6">
         <v>14</v>
@@ -24660,7 +24659,7 @@
     </row>
     <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B490" s="6">
         <v>14</v>
@@ -24709,7 +24708,7 @@
     </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B491" s="6">
         <v>14</v>
@@ -24758,7 +24757,7 @@
     </row>
     <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B492" s="6">
         <v>14</v>
@@ -24807,7 +24806,7 @@
     </row>
     <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B493" s="6">
         <v>14</v>
@@ -24816,7 +24815,7 @@
         <v>44813</v>
       </c>
       <c r="D493" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E493">
         <v>0.5</v>
@@ -24830,11 +24829,11 @@
       <c r="H493" s="5">
         <v>5</v>
       </c>
-      <c r="I493" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="J493" s="12" t="s">
-        <v>106</v>
+      <c r="I493" t="s">
+        <v>101</v>
+      </c>
+      <c r="J493" t="s">
+        <v>105</v>
       </c>
       <c r="K493" t="s">
         <v>11</v>
@@ -24856,7 +24855,7 @@
     </row>
     <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B494" s="6">
         <v>14</v>
@@ -24865,7 +24864,7 @@
         <v>44813</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E494">
         <v>0.5</v>
@@ -24880,10 +24879,10 @@
         <v>5</v>
       </c>
       <c r="I494" t="s">
+        <v>99</v>
+      </c>
+      <c r="J494" t="s">
         <v>100</v>
-      </c>
-      <c r="J494" t="s">
-        <v>101</v>
       </c>
       <c r="K494" t="s">
         <v>11</v>
@@ -24905,7 +24904,7 @@
     </row>
     <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B495" s="6">
         <v>14</v>
@@ -24914,7 +24913,7 @@
         <v>44813</v>
       </c>
       <c r="D495" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E495">
         <v>0.5</v>
@@ -24954,7 +24953,7 @@
     </row>
     <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B496" s="6">
         <v>14</v>
@@ -25003,7 +25002,7 @@
     </row>
     <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B497" s="6">
         <v>14</v>
@@ -25052,7 +25051,7 @@
     </row>
     <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B498" s="6">
         <v>14</v>
@@ -25101,7 +25100,7 @@
     </row>
     <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B499" s="6">
         <v>14</v>
@@ -25150,7 +25149,7 @@
     </row>
     <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B500" s="6">
         <v>14</v>
@@ -25159,7 +25158,7 @@
         <v>44813</v>
       </c>
       <c r="D500" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E500">
         <v>0.5</v>
@@ -25199,7 +25198,7 @@
     </row>
     <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B501" s="6">
         <v>14</v>
@@ -25248,7 +25247,7 @@
     </row>
     <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B502" s="6">
         <v>14</v>
@@ -25272,10 +25271,10 @@
         <v>20</v>
       </c>
       <c r="I502" t="s">
+        <v>99</v>
+      </c>
+      <c r="J502" t="s">
         <v>100</v>
-      </c>
-      <c r="J502" t="s">
-        <v>101</v>
       </c>
       <c r="K502" t="s">
         <v>11</v>
@@ -25297,7 +25296,7 @@
     </row>
     <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B503" s="6">
         <v>14</v>
@@ -25346,7 +25345,7 @@
     </row>
     <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B504" s="6">
         <v>14</v>
@@ -25395,7 +25394,7 @@
     </row>
     <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B505" s="6">
         <v>14</v>
@@ -25419,10 +25418,10 @@
         <v>15</v>
       </c>
       <c r="I505" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J505" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K505" t="s">
         <v>11</v>
@@ -25444,7 +25443,7 @@
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B506" s="6">
         <v>14</v>
@@ -25493,7 +25492,7 @@
     </row>
     <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B507" s="6">
         <v>14</v>
@@ -25517,10 +25516,10 @@
         <v>15</v>
       </c>
       <c r="I507" t="s">
+        <v>99</v>
+      </c>
+      <c r="J507" t="s">
         <v>100</v>
-      </c>
-      <c r="J507" t="s">
-        <v>101</v>
       </c>
       <c r="K507" t="s">
         <v>11</v>
@@ -25542,7 +25541,7 @@
     </row>
     <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B508" s="6">
         <v>14</v>
@@ -25591,7 +25590,7 @@
     </row>
     <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B509" s="6">
         <v>14</v>
@@ -25615,10 +25614,10 @@
         <v>10</v>
       </c>
       <c r="I509" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J509" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K509" t="s">
         <v>11</v>
@@ -25640,7 +25639,7 @@
     </row>
     <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B510" s="6">
         <v>14</v>
@@ -25689,7 +25688,7 @@
     </row>
     <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B511" s="6">
         <v>14</v>
@@ -25713,10 +25712,10 @@
         <v>10</v>
       </c>
       <c r="I511" t="s">
+        <v>99</v>
+      </c>
+      <c r="J511" t="s">
         <v>100</v>
-      </c>
-      <c r="J511" t="s">
-        <v>101</v>
       </c>
       <c r="K511" t="s">
         <v>11</v>
@@ -25738,7 +25737,7 @@
     </row>
     <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B512" s="6">
         <v>14</v>
@@ -25747,7 +25746,7 @@
         <v>44813</v>
       </c>
       <c r="D512" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E512" s="6">
         <v>0.5</v>
@@ -25762,10 +25761,10 @@
         <v>5</v>
       </c>
       <c r="I512" t="s">
+        <v>74</v>
+      </c>
+      <c r="J512" t="s">
         <v>75</v>
-      </c>
-      <c r="J512" t="s">
-        <v>76</v>
       </c>
       <c r="K512" t="s">
         <v>11</v>
@@ -25787,7 +25786,7 @@
     </row>
     <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B513" s="6">
         <v>14</v>
@@ -25796,7 +25795,7 @@
         <v>44813</v>
       </c>
       <c r="D513" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E513" s="6">
         <v>0.5</v>
@@ -25836,7 +25835,7 @@
     </row>
     <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B514" s="6">
         <v>14</v>
@@ -25845,7 +25844,7 @@
         <v>44813</v>
       </c>
       <c r="D514" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E514" s="6">
         <v>0.5</v>
@@ -25860,10 +25859,10 @@
         <v>5</v>
       </c>
       <c r="I514" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J514" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K514" t="s">
         <v>11</v>
@@ -25885,7 +25884,7 @@
     </row>
     <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B515" s="6">
         <v>14</v>
@@ -25894,7 +25893,7 @@
         <v>44813</v>
       </c>
       <c r="D515" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E515" s="6">
         <v>0.5</v>
@@ -25934,7 +25933,7 @@
     </row>
     <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B516" s="6">
         <v>15</v>
@@ -25983,7 +25982,7 @@
     </row>
     <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B517" s="6">
         <v>15</v>
@@ -25992,7 +25991,7 @@
         <v>44814</v>
       </c>
       <c r="D517" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E517" s="6">
         <v>0.5</v>
@@ -26032,7 +26031,7 @@
     </row>
     <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B518" s="6">
         <v>15</v>
@@ -26081,7 +26080,7 @@
     </row>
     <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B519" s="6">
         <v>15</v>
@@ -26130,7 +26129,7 @@
     </row>
     <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B520" s="6">
         <v>15</v>
@@ -26179,7 +26178,7 @@
     </row>
     <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B521" s="6">
         <v>15</v>
@@ -26228,7 +26227,7 @@
     </row>
     <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B522" s="6">
         <v>15</v>
@@ -26277,7 +26276,7 @@
     </row>
     <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B523" s="6">
         <v>15</v>
@@ -26326,7 +26325,7 @@
     </row>
     <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B524" s="6">
         <v>15</v>
@@ -26335,7 +26334,7 @@
         <v>44814</v>
       </c>
       <c r="D524" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E524" s="6">
         <v>0.5</v>
@@ -26375,7 +26374,7 @@
     </row>
     <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B525" s="6">
         <v>15</v>
@@ -26384,7 +26383,7 @@
         <v>44814</v>
       </c>
       <c r="D525" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E525" s="6">
         <v>0.5</v>
@@ -26424,7 +26423,7 @@
     </row>
     <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B526" s="6">
         <v>15</v>
@@ -26433,7 +26432,7 @@
         <v>44814</v>
       </c>
       <c r="D526" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E526" s="6">
         <v>0.5</v>
@@ -26473,7 +26472,7 @@
     </row>
     <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B527" s="6">
         <v>15</v>
@@ -26482,7 +26481,7 @@
         <v>44814</v>
       </c>
       <c r="D527" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E527" s="6">
         <v>0.5</v>
@@ -26522,7 +26521,7 @@
     </row>
     <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B528" s="6">
         <v>15</v>
@@ -26531,7 +26530,7 @@
         <v>44814</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E528" s="6">
         <v>0.5</v>
@@ -26571,7 +26570,7 @@
     </row>
     <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B529" s="6">
         <v>15</v>
@@ -26580,7 +26579,7 @@
         <v>44814</v>
       </c>
       <c r="D529" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E529" s="6">
         <v>0.5</v>
@@ -26620,7 +26619,7 @@
     </row>
     <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B530" s="6">
         <v>15</v>
@@ -26629,7 +26628,7 @@
         <v>44814</v>
       </c>
       <c r="D530" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E530" s="6">
         <v>0.5</v>
@@ -26669,7 +26668,7 @@
     </row>
     <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B531" s="6">
         <v>15</v>
@@ -26678,7 +26677,7 @@
         <v>44814</v>
       </c>
       <c r="D531" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E531" s="6">
         <v>0.5</v>
@@ -26693,10 +26692,10 @@
         <v>5</v>
       </c>
       <c r="I531" t="s">
+        <v>93</v>
+      </c>
+      <c r="J531" t="s">
         <v>94</v>
-      </c>
-      <c r="J531" t="s">
-        <v>95</v>
       </c>
       <c r="K531" t="s">
         <v>11</v>
@@ -26718,7 +26717,7 @@
     </row>
     <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B532" s="6">
         <v>15</v>
@@ -26727,7 +26726,7 @@
         <v>44814</v>
       </c>
       <c r="D532" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E532" s="6">
         <v>0.5</v>
@@ -26742,10 +26741,10 @@
         <v>5</v>
       </c>
       <c r="I532" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J532" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K532" t="s">
         <v>11</v>
@@ -26767,7 +26766,7 @@
     </row>
     <row r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B533" s="6">
         <v>15</v>
@@ -26776,7 +26775,7 @@
         <v>44814</v>
       </c>
       <c r="D533" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E533" s="6">
         <v>0.5</v>
@@ -26816,7 +26815,7 @@
     </row>
     <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B534" s="6">
         <v>15</v>
@@ -26825,7 +26824,7 @@
         <v>44814</v>
       </c>
       <c r="D534" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E534" s="6">
         <v>0.5</v>
@@ -26865,7 +26864,7 @@
     </row>
     <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B535" s="6">
         <v>15</v>
@@ -26914,7 +26913,7 @@
     </row>
     <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B536" s="6">
         <v>15</v>
@@ -26923,7 +26922,7 @@
         <v>44814</v>
       </c>
       <c r="D536" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E536" s="6">
         <v>0.5</v>
@@ -26963,7 +26962,7 @@
     </row>
     <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B537" s="6">
         <v>15</v>
@@ -27012,7 +27011,7 @@
     </row>
     <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B538" s="6">
         <v>15</v>
@@ -27061,7 +27060,7 @@
     </row>
     <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B539" s="6">
         <v>15</v>
@@ -27070,7 +27069,7 @@
         <v>44814</v>
       </c>
       <c r="D539" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E539" s="6">
         <v>0.5</v>
@@ -27110,7 +27109,7 @@
     </row>
     <row r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B540" s="6">
         <v>15</v>
@@ -27119,7 +27118,7 @@
         <v>44814</v>
       </c>
       <c r="D540" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E540" s="6">
         <v>0.5</v>
@@ -27159,7 +27158,7 @@
     </row>
     <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B541" s="6">
         <v>15</v>
@@ -27168,7 +27167,7 @@
         <v>44814</v>
       </c>
       <c r="D541" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E541" s="6">
         <v>0.5</v>
@@ -27183,10 +27182,10 @@
         <v>5</v>
       </c>
       <c r="I541" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J541" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K541" t="s">
         <v>11</v>
@@ -27208,7 +27207,7 @@
     </row>
     <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B542" s="6">
         <v>15</v>
@@ -27217,7 +27216,7 @@
         <v>44814</v>
       </c>
       <c r="D542" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E542" s="6">
         <v>0.5</v>
@@ -27257,7 +27256,7 @@
     </row>
     <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B543" s="6">
         <v>15</v>
@@ -27266,7 +27265,7 @@
         <v>44814</v>
       </c>
       <c r="D543" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E543" s="6">
         <v>0.5</v>
@@ -27306,7 +27305,7 @@
     </row>
     <row r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B544" s="6">
         <v>15</v>
@@ -27315,7 +27314,7 @@
         <v>44814</v>
       </c>
       <c r="D544" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E544" s="6">
         <v>0.5</v>
@@ -27355,7 +27354,7 @@
     </row>
     <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B545" s="6">
         <v>15</v>
@@ -27364,7 +27363,7 @@
         <v>44814</v>
       </c>
       <c r="D545" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E545" s="6">
         <v>0.5</v>
@@ -27404,7 +27403,7 @@
     </row>
     <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B546" s="6">
         <v>15</v>
@@ -27453,7 +27452,7 @@
     </row>
     <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B547" s="6">
         <v>15</v>
@@ -27462,7 +27461,7 @@
         <v>44814</v>
       </c>
       <c r="D547" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E547" s="6">
         <v>0.5</v>
@@ -27502,7 +27501,7 @@
     </row>
     <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B548" s="6">
         <v>15</v>
@@ -27511,7 +27510,7 @@
         <v>44814</v>
       </c>
       <c r="D548" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E548" s="6">
         <v>0.5</v>
@@ -27526,10 +27525,10 @@
         <v>5</v>
       </c>
       <c r="I548" t="s">
+        <v>74</v>
+      </c>
+      <c r="J548" t="s">
         <v>75</v>
-      </c>
-      <c r="J548" t="s">
-        <v>76</v>
       </c>
       <c r="K548" t="s">
         <v>11</v>
@@ -27551,7 +27550,7 @@
     </row>
     <row r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B549" s="6">
         <v>15</v>
@@ -27560,7 +27559,7 @@
         <v>44814</v>
       </c>
       <c r="D549" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E549" s="6">
         <v>0.5</v>
@@ -27600,7 +27599,7 @@
     </row>
     <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B550" s="6">
         <v>15</v>
@@ -27609,7 +27608,7 @@
         <v>44814</v>
       </c>
       <c r="D550" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E550" s="6">
         <v>0.5</v>
@@ -27649,7 +27648,7 @@
     </row>
     <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B551" s="6">
         <v>15</v>
@@ -27658,7 +27657,7 @@
         <v>44814</v>
       </c>
       <c r="D551" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E551" s="6">
         <v>0.5</v>
@@ -27673,10 +27672,10 @@
         <v>5</v>
       </c>
       <c r="I551" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J551" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K551" t="s">
         <v>11</v>
@@ -27698,7 +27697,7 @@
     </row>
     <row r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B552" s="6">
         <v>15</v>
@@ -27707,7 +27706,7 @@
         <v>44814</v>
       </c>
       <c r="D552" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E552" s="6">
         <v>0.5</v>
@@ -27747,7 +27746,7 @@
     </row>
     <row r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B553" s="6">
         <v>15</v>
@@ -27756,7 +27755,7 @@
         <v>44814</v>
       </c>
       <c r="D553" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E553" s="6">
         <v>0.5</v>
@@ -27796,7 +27795,7 @@
     </row>
     <row r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B554" s="6">
         <v>15</v>
@@ -27805,7 +27804,7 @@
         <v>44814</v>
       </c>
       <c r="D554" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E554" s="6">
         <v>0.5</v>

--- a/data/raw/Wrack_Biomass_Raw_Data.xlsx
+++ b/data/raw/Wrack_Biomass_Raw_Data.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GERRATY/Fucus_Wrack/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDCBBD4-ACBC-8C41-8475-EC8B939F54A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B98250E-F14F-0949-8EE2-A960CAF3DFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="15280" xr2:uid="{E2CD804E-617D-0247-A376-9AE9DA4D0508}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -773,8 +772,8 @@
   <dimension ref="A1:O554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27845,16 +27844,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E6953F-D674-4F47-AEEC-370871202FB6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>